--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_v5.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_v5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="810" windowWidth="18375" windowHeight="10905" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="510" yWindow="810" windowWidth="18375" windowHeight="10905" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ABCB1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9706" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9725" uniqueCount="503">
   <si>
     <t>status</t>
   </si>
@@ -1513,9 +1513,6 @@
     <t>VKORC1</t>
   </si>
   <si>
-    <t xml:space="preserve"> [tag]</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
@@ -1565,6 +1562,9 @@
   </si>
   <si>
     <t>haplotype Mediterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> del [tag]</t>
   </si>
 </sst>
 </file>
@@ -5678,7 +5678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9451,7 +9451,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9642,6 +9642,9 @@
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
@@ -10954,7 +10957,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" activeCellId="1" sqref="F4 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11023,17 +11026,26 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>485</v>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -11052,11 +11064,26 @@
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>125</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>18</v>
@@ -11075,11 +11102,26 @@
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>125</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>125</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
@@ -11098,11 +11140,26 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
+        <v>125</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>125</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -11242,7 +11299,7 @@
         <v>484</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -11283,7 +11340,7 @@
         <v>484</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -11324,7 +11381,7 @@
         <v>484</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -11406,7 +11463,7 @@
         <v>484</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -11447,7 +11504,7 @@
         <v>484</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -11575,7 +11632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -11605,30 +11662,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -11654,10 +11711,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -11683,10 +11740,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -11709,10 +11766,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -11735,10 +11792,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
